--- a/AAII_Financials/Quarterly/SKYH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKYH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>SKYH</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,57 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -740,8 +743,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,8 +775,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +823,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +885,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +917,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,28 +962,29 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E17" s="3">
         <v>3200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-4400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3000</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -966,8 +992,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -975,19 +1004,19 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F18" s="3">
         <v>1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3000</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -995,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,8 +1040,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1028,8 +1061,8 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1037,8 +1070,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1066,8 +1102,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,28 +1134,31 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3000</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1124,8 +1166,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1153,8 +1198,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,28 +1230,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3000</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1211,28 +1262,31 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3000</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1240,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,8 +1422,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1376,8 +1445,8 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1385,28 +1454,31 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3000</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1414,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,28 +1518,31 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3000</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1472,42 +1550,48 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,28 +1617,29 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1561,13 +1647,16 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>138700</v>
+        <v>138800</v>
       </c>
       <c r="E42" s="3">
         <v>138700</v>
@@ -1578,8 +1667,8 @@
       <c r="G42" s="3">
         <v>138700</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+      <c r="H42" s="3">
+        <v>138700</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1590,8 +1679,11 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1619,8 +1711,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,66 +1743,75 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G45" s="3">
         <v>400</v>
       </c>
       <c r="H45" s="3">
+        <v>400</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>139100</v>
+      </c>
+      <c r="E46" s="3">
         <v>139900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>139800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>140000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>140200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,8 +1839,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1764,8 +1871,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +1903,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,8 +1967,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1880,8 +1999,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,37 +2031,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>139100</v>
+      </c>
+      <c r="E54" s="3">
         <v>139900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>139800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>140000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>140200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,45 +2093,49 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="E58" s="3">
+        <v>1000</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2010,20 +2143,23 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2039,8 +2175,8 @@
       <c r="G59" s="3">
         <v>4800</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+      <c r="H59" s="3">
+        <v>4800</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2051,37 +2187,43 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E60" s="3">
         <v>6100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>4900</v>
       </c>
       <c r="G60" s="3">
         <v>4900</v>
       </c>
       <c r="H60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2109,26 +2251,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E62" s="3">
         <v>13600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,37 +2379,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E66" s="3">
         <v>19800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,28 +2553,31 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-21400</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2412,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,28 +2681,31 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>120300</v>
+      </c>
+      <c r="E76" s="3">
         <v>120100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>123300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>121800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>117300</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2528,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,62 +2745,68 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3000</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2620,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +2830,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2662,8 +2860,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,28 +3020,31 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2836,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,8 +3068,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2878,8 +3098,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,8 +3162,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2950,8 +3179,8 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2965,8 +3194,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,13 +3336,16 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
@@ -3108,14 +3353,14 @@
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>140500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3123,8 +3368,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,33 +3400,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKYH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKYH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
   <si>
     <t>SKYH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,88 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>400</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -746,8 +754,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -778,8 +792,14 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,8 +830,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,8 +850,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -856,8 +884,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,31 +922,37 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -920,31 +960,37 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -952,8 +998,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,72 +1015,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F17" s="3">
         <v>-100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>-1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>-4400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3000</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-5100</v>
       </c>
       <c r="E18" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
+        <v>-5600</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
+      <c r="K18" s="3">
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,48 +1107,56 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>15400</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
+        <v>-13900</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-19400</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1105,8 +1179,14 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1137,40 +1217,52 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>4400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3000</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1201,8 +1293,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,72 +1331,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>4400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3000</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>4400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3000</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1445,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1483,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1521,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,72 +1559,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-15400</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
+        <v>13900</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>4400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3000</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,77 +1673,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>4400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3000</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1774,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,51 +1790,59 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>48600</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
-      </c>
-      <c r="E41" s="3">
-        <v>900</v>
-      </c>
-      <c r="F41" s="3">
-        <v>700</v>
       </c>
       <c r="G41" s="3">
         <v>900</v>
       </c>
       <c r="H41" s="3">
+        <v>700</v>
+      </c>
+      <c r="I41" s="3">
+        <v>900</v>
+      </c>
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3">
         <v>138800</v>
-      </c>
-      <c r="E42" s="3">
-        <v>138700</v>
-      </c>
-      <c r="F42" s="3">
-        <v>138700</v>
       </c>
       <c r="G42" s="3">
         <v>138700</v>
@@ -1670,11 +1850,11 @@
       <c r="H42" s="3">
         <v>138700</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+      <c r="I42" s="3">
+        <v>138700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>138700</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1682,8 +1862,14 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1714,8 +1900,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1746,72 +1938,90 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>234900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>227800</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>268600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>276400</v>
+      </c>
+      <c r="F46" s="3">
         <v>139100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>139900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>139800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>140000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>140200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1842,31 +2052,37 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>71300</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>71300</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -1874,8 +2090,14 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1906,8 +2128,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2166,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,8 +2204,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2002,8 +2242,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,40 +2280,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>339900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>347800</v>
+      </c>
+      <c r="F54" s="3">
         <v>139100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>139900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>139800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>140000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>140200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2338,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,22 +2354,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -2117,57 +2379,69 @@
       <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
+        <v>100</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>4800</v>
-      </c>
-      <c r="E59" s="3">
-        <v>4800</v>
+      <c r="D59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F59" s="3">
         <v>4800</v>
@@ -2178,11 +2452,11 @@
       <c r="H59" s="3">
         <v>4800</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>4800</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2190,48 +2464,60 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F60" s="3">
         <v>6900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>160800</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>160800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2254,40 +2540,52 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>83400</v>
+      </c>
+      <c r="F62" s="3">
         <v>11900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>13600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>11500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>13400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>18000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2616,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2654,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,40 +2692,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>314200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>334900</v>
+      </c>
+      <c r="F66" s="3">
         <v>18800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>19800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>16400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>18200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>22900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2750,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2784,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2822,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2524,8 +2860,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,40 +2898,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-18400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-18600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-15400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-17000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-21400</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2974,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +3012,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,40 +3050,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F76" s="3">
         <v>120300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>120100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>123300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>121800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>117300</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,77 +3126,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>4400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3000</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,31 +3227,33 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2863,8 +3261,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3299,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3337,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3375,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3413,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,40 +3451,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,31 +3509,33 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3101,8 +3543,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3581,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,16 +3619,22 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-10300</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-179000</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3182,11 +3642,11 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3197,8 +3657,14 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3677,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3711,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3749,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3787,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,40 +3825,52 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
         <v>0</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+      <c r="E100" s="3">
+        <v>51900</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
         <v>140500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3403,36 +3901,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-137300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKYH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKYH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>SKYH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,69 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -733,8 +737,8 @@
       <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+      <c r="F8" s="3">
+        <v>400</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -748,8 +752,8 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -760,8 +764,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,8 +805,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -836,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +865,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,17 +945,20 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -954,8 +974,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -966,20 +986,23 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="3">
         <v>200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1015,8 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,37 +1043,38 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-4400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3000</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1055,20 +1082,23 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5600</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1081,11 +1111,11 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
@@ -1093,8 +1123,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,20 +1142,21 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>15400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-13900</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1135,11 +1169,11 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1147,20 +1181,23 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E21" s="3">
         <v>10400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-19400</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,8 +1222,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1223,37 +1263,40 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E23" s="3">
         <v>10300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3000</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
@@ -1261,8 +1304,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1299,8 +1345,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,37 +1386,40 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E26" s="3">
         <v>10300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3000</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -1375,37 +1427,40 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>12700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3000</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1468,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,20 +1632,23 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-15400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>13900</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,11 +1661,11 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1603,37 +1673,40 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>12700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3000</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -1641,8 +1714,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,37 +1755,40 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>12700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3000</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -1717,51 +1796,57 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,37 +1878,38 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>3800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>48600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -1830,22 +1917,25 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E42" s="3">
         <v>29900</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3">
         <v>138800</v>
-      </c>
-      <c r="G42" s="3">
-        <v>138700</v>
       </c>
       <c r="H42" s="3">
         <v>138700</v>
@@ -1856,8 +1946,8 @@
       <c r="J42" s="3">
         <v>138700</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
+      <c r="K42" s="3">
+        <v>138700</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
@@ -1868,8 +1958,11 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1906,8 +1999,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,84 +2040,93 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>233100</v>
+      </c>
+      <c r="E45" s="3">
         <v>234900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>227800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
       <c r="I45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J45" s="3">
         <v>400</v>
       </c>
       <c r="K45" s="3">
+        <v>400</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>263600</v>
+      </c>
+      <c r="E46" s="3">
         <v>268600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>276400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>139100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>139900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>139800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>140000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>140200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2058,19 +2163,22 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>71300</v>
+        <v>71000</v>
       </c>
       <c r="E48" s="3">
         <v>71300</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="3">
+        <v>71300</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -2084,8 +2192,8 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2096,8 +2204,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,8 +2327,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,46 +2409,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>334600</v>
+      </c>
+      <c r="E54" s="3">
         <v>339900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>347800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>139100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>139900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>139800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>140000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>140200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,46 +2486,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E57" s="3">
         <v>18400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2405,14 +2539,14 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>1000</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>1000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2420,20 +2554,23 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2443,8 +2580,8 @@
       <c r="E59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F59" s="3">
-        <v>4800</v>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G59" s="3">
         <v>4800</v>
@@ -2458,8 +2595,8 @@
       <c r="J59" s="3">
         <v>4800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3">
+        <v>4800</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
@@ -2470,57 +2607,63 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E60" s="3">
         <v>18400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>4900</v>
       </c>
       <c r="J60" s="3">
         <v>4900</v>
       </c>
       <c r="K60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>160800</v>
+        <v>162200</v>
       </c>
       <c r="E61" s="3">
         <v>160800</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>160800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2546,35 +2689,38 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E62" s="3">
         <v>58800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>83400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,46 +2853,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>309300</v>
+      </c>
+      <c r="E66" s="3">
         <v>314200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>334900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,37 +3075,40 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-21400</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="L72" s="3">
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,37 +3239,40 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E76" s="3">
         <v>25700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>120300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>120100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>123300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>121800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>117300</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="L76" s="3">
+        <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,80 +3321,86 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>12700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3000</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
@@ -3213,8 +3408,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,20 +3427,21 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3255,8 +3454,8 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3267,8 +3466,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,37 +3671,40 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -3495,8 +3712,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,19 +3731,20 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3537,8 +3758,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3549,8 +3770,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,20 +3852,23 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-179000</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -3648,8 +3878,8 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3663,8 +3893,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,22 +4074,25 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>51900</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3854,14 +4100,14 @@
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>140500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -3869,8 +4115,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,42 +4156,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-24500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-137300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKYH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKYH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
   <si>
     <t>SKYH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,93 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="E8" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+      <c r="G8" s="3">
+        <v>400</v>
+      </c>
+      <c r="H8" s="3">
+        <v>400</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -755,11 +762,11 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -767,8 +774,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -808,8 +821,14 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,8 +868,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,8 +891,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,8 +934,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,23 +981,29 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -977,11 +1016,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -989,13 +1028,19 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
@@ -1003,11 +1048,11 @@
       <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+      <c r="G15" s="3">
+        <v>200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -1018,11 +1063,11 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1030,8 +1075,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,67 +1095,75 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F17" s="3">
         <v>5000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>6000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>-100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>-1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>-4400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+      <c r="N17" s="3">
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-5100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-5600</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1114,20 +1173,26 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
+      <c r="L18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
+      <c r="N18" s="3">
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,26 +1208,28 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>15400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-13900</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1172,38 +1239,44 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>10400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-19400</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,8 +1298,14 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1266,49 +1345,61 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>10300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-19500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3000</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1348,8 +1439,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1486,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>10300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-19500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3000</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>12700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-15800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3000</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1627,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1674,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1721,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,26 +1768,32 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-15400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>13900</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1664,61 +1803,73 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>12700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-15800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3000</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1909,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>12700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-15800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3000</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +2031,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,69 +2050,77 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>48600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>900</v>
-      </c>
-      <c r="I41" s="3">
-        <v>700</v>
       </c>
       <c r="J41" s="3">
         <v>900</v>
       </c>
       <c r="K41" s="3">
+        <v>700</v>
+      </c>
+      <c r="L41" s="3">
+        <v>900</v>
+      </c>
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>24900</v>
+      </c>
+      <c r="F42" s="3">
         <v>29800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>29900</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3">
         <v>138800</v>
-      </c>
-      <c r="H42" s="3">
-        <v>138700</v>
-      </c>
-      <c r="I42" s="3">
-        <v>138700</v>
       </c>
       <c r="J42" s="3">
         <v>138700</v>
@@ -1949,11 +2128,11 @@
       <c r="K42" s="3">
         <v>138700</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
+      <c r="L42" s="3">
+        <v>138700</v>
+      </c>
+      <c r="M42" s="3">
+        <v>138700</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
@@ -1961,8 +2140,14 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2002,8 +2187,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,90 +2234,108 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>168900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>206600</v>
+      </c>
+      <c r="F45" s="3">
         <v>233100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>234900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>227800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3">
+        <v>233600</v>
+      </c>
+      <c r="F46" s="3">
         <v>263600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>268600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>276400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>139100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>139900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>139800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>140000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>140200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2166,26 +2375,32 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>136400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>97600</v>
+      </c>
+      <c r="F48" s="3">
         <v>71000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>71300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>71300</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,11 +2410,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2207,8 +2422,14 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2469,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2516,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,8 +2563,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2371,8 +2610,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,49 +2657,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>326500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>331200</v>
+      </c>
+      <c r="F54" s="3">
         <v>334600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>339900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>347800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>139100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>139900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>139800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>140000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>140200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2727,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,31 +2746,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F57" s="3">
         <v>15700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>18400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>12100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -2519,17 +2780,23 @@
       <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
+      <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
+        <v>100</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2542,35 +2809,41 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2583,11 +2856,11 @@
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="3">
-        <v>4800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>4800</v>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I59" s="3">
         <v>4800</v>
@@ -2598,11 +2871,11 @@
       <c r="K59" s="3">
         <v>4800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
+      <c r="L59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="M59" s="3">
+        <v>4800</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
@@ -2610,67 +2883,79 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F60" s="3">
         <v>15700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>18400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>12100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>6100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>162300</v>
+      </c>
+      <c r="E61" s="3">
         <v>162200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>162200</v>
+      </c>
+      <c r="G61" s="3">
         <v>160800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>160800</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2692,49 +2977,61 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>56400</v>
+      </c>
+      <c r="F62" s="3">
         <v>57500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>58800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>83400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>11900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>13600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>11500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>13400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>18000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +3071,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +3118,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,49 +3165,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>305700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>304900</v>
+      </c>
+      <c r="F66" s="3">
         <v>309300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>314200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>334900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>18800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>19800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>16400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>18200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>22900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3235,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3278,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3325,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3372,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,49 +3419,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-3100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-15800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-18400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-18600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-15400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-17000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-21400</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
+      <c r="N72" s="3">
+        <v>0</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3513,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3560,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,49 +3607,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F76" s="3">
         <v>25300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>25700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>12900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>120300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>120100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>123300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>121800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>117300</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
+      <c r="N76" s="3">
+        <v>0</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3701,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>12700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-15800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3000</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,13 +3823,15 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -3442,11 +3839,11 @@
       <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3457,11 +3854,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3469,8 +3866,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3913,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3960,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +4007,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +4054,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,49 +4101,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-14100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-10200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,8 +4171,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3741,31 +4182,31 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3773,8 +4214,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4261,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,37 +4308,43 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>25700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-24200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-10300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-179000</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -3896,8 +4355,14 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4378,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4421,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4468,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4515,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,49 +4562,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>51900</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>140500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,45 +4656,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-24300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-24500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-137300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKYH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKYH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>SKYH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,91 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>600</v>
-      </c>
-      <c r="F8" s="3">
-        <v>400</v>
       </c>
       <c r="G8" s="3">
         <v>400</v>
@@ -753,8 +757,8 @@
       <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+      <c r="I8" s="3">
+        <v>400</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -768,8 +772,8 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -780,8 +784,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -827,8 +834,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +906,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -940,8 +954,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,26 +1004,29 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1022,8 +1042,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1034,8 +1054,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1043,20 +1066,20 @@
         <v>500</v>
       </c>
       <c r="E15" s="3">
+        <v>500</v>
+      </c>
+      <c r="F15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1069,8 +1092,8 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1081,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,46 +1123,47 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-4400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3000</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
+      <c r="O17" s="3">
+        <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
@@ -1144,29 +1171,32 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5600</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1179,11 +1209,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
@@ -1191,8 +1221,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,29 +1243,30 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>2700</v>
       </c>
       <c r="E20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>15400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-13900</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1245,11 +1279,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1257,29 +1291,32 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-1000</v>
       </c>
       <c r="E21" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-19400</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,16 +1341,19 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1327,8 +1367,8 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1351,46 +1391,49 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-1600</v>
       </c>
       <c r="E23" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>10300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-19500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3000</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
+      <c r="O23" s="3">
+        <v>0</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
@@ -1398,8 +1441,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1445,8 +1491,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,46 +1541,49 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-1600</v>
       </c>
       <c r="E26" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-19500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3000</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
+      <c r="O26" s="3">
+        <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
@@ -1539,46 +1591,49 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>800</v>
       </c>
       <c r="E27" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3000</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
+      <c r="O27" s="3">
+        <v>0</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
@@ -1586,8 +1641,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,29 +1841,32 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-2700</v>
       </c>
       <c r="E32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-15400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>13900</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,11 +1879,11 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1821,46 +1891,49 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>800</v>
       </c>
       <c r="E33" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3000</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
+      <c r="O33" s="3">
+        <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
@@ -1868,8 +1941,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,46 +1991,49 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>800</v>
       </c>
       <c r="E35" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3000</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
+      <c r="O35" s="3">
+        <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
@@ -1962,60 +2041,66 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,46 +2138,47 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E41" s="3">
         <v>2900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>48600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
@@ -2099,31 +2186,34 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E42" s="3">
         <v>18400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>24900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>29800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>29900</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3">
         <v>138800</v>
-      </c>
-      <c r="J42" s="3">
-        <v>138700</v>
       </c>
       <c r="K42" s="3">
         <v>138700</v>
@@ -2134,8 +2224,8 @@
       <c r="M42" s="3">
         <v>138700</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
+      <c r="N42" s="3">
+        <v>138700</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
@@ -2146,8 +2236,11 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2193,8 +2286,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2240,102 +2336,111 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>168100</v>
+      </c>
+      <c r="E45" s="3">
         <v>168900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>206600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>233100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>234900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>227800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>300</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
       </c>
       <c r="L45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M45" s="3">
         <v>400</v>
       </c>
       <c r="N45" s="3">
+        <v>400</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>187800</v>
       </c>
       <c r="E46" s="3">
+        <v>190200</v>
+      </c>
+      <c r="F46" s="3">
         <v>233600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>263600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>268600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>276400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>139100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>139900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>139800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>140000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>140200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2381,28 +2486,31 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>147500</v>
+      </c>
+      <c r="E48" s="3">
         <v>136400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>97600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>71000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>71300</v>
       </c>
       <c r="H48" s="3">
         <v>71300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>71300</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2416,8 +2524,8 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2428,8 +2536,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2475,8 +2586,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,8 +2686,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2616,8 +2736,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,55 +2786,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>335300</v>
+      </c>
+      <c r="E54" s="3">
         <v>326500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>331200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>334600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>339900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>347800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>139100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>139900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>139800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>140000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>140200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,55 +2878,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
         <v>13100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>15700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2815,14 +2949,14 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
-        <v>1000</v>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>1000</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2830,25 +2964,28 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>13400</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -2862,8 +2999,8 @@
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I59" s="3">
-        <v>4800</v>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J59" s="3">
         <v>4800</v>
@@ -2877,8 +3014,8 @@
       <c r="M59" s="3">
         <v>4800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
+      <c r="N59" s="3">
+        <v>4800</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
@@ -2889,75 +3026,81 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>13400</v>
       </c>
       <c r="E60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F60" s="3">
         <v>14200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>4900</v>
       </c>
       <c r="M60" s="3">
         <v>4900</v>
       </c>
       <c r="N60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>173300</v>
+      </c>
+      <c r="E61" s="3">
         <v>162300</v>
-      </c>
-      <c r="E61" s="3">
-        <v>162200</v>
       </c>
       <c r="F61" s="3">
         <v>162200</v>
       </c>
       <c r="G61" s="3">
-        <v>160800</v>
+        <v>162200</v>
       </c>
       <c r="H61" s="3">
         <v>160800</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>160800</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2983,44 +3126,47 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E62" s="3">
         <v>60900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>56400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>57500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>58800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>83400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>11900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,55 +3326,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>313200</v>
+      </c>
+      <c r="E66" s="3">
         <v>305700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>304900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>309300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>314200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>334900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3378,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,46 +3596,49 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-18600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-21400</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
+      <c r="O72" s="3">
+        <v>0</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
@@ -3472,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,46 +3796,49 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E76" s="3">
         <v>20800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>26300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>25300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>120300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>120100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>123300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>121800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>117300</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
+      <c r="O76" s="3">
+        <v>0</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
@@ -3660,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,98 +3896,104 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>800</v>
       </c>
       <c r="E81" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3000</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
+      <c r="O81" s="3">
+        <v>0</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
@@ -3806,8 +4001,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,8 +4023,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3834,20 +4033,20 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3860,8 +4059,8 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3872,8 +4071,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,8 +4321,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4116,37 +4333,37 @@
         <v>-4600</v>
       </c>
       <c r="E89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
@@ -4154,8 +4371,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,34 +4393,35 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -4208,8 +4429,8 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4220,8 +4441,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,29 +4541,32 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="E94" s="3">
         <v>36300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>25700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-24200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-179000</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -4346,8 +4576,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -4361,8 +4591,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,8 +4811,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4580,19 +4826,19 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>51900</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -4600,14 +4846,14 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>140500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -4615,8 +4861,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4662,51 +4911,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E102" s="3">
         <v>31800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>23500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-24300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-24500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-137300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKYH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKYH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="92">
   <si>
     <t>SKYH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,98 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>600</v>
-      </c>
-      <c r="G8" s="3">
-        <v>400</v>
       </c>
       <c r="H8" s="3">
         <v>400</v>
@@ -760,8 +764,8 @@
       <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="J8" s="3">
+        <v>400</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -775,8 +779,8 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -787,8 +791,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,8 +844,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,8 +920,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,29 +1024,32 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1045,8 +1065,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1057,32 +1077,35 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E15" s="3">
         <v>500</v>
       </c>
       <c r="F15" s="3">
+        <v>500</v>
+      </c>
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1095,8 +1118,8 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,49 +1150,50 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E17" s="3">
         <v>6000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-4400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3000</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
+      <c r="P17" s="3">
+        <v>0</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
@@ -1174,32 +1201,35 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5600</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1212,11 +1242,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
@@ -1224,8 +1254,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,32 +1277,33 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>2700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>15400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-13900</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1282,11 +1316,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1294,32 +1328,35 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-8300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-19400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1344,19 +1381,22 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1367,11 +1407,11 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1394,49 +1434,52 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-19500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3000</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
+      <c r="P23" s="3">
+        <v>0</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
@@ -1444,8 +1487,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1494,8 +1540,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,49 +1593,52 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-19500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3000</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
+      <c r="P26" s="3">
+        <v>0</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
@@ -1594,49 +1646,52 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3000</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
+      <c r="P27" s="3">
+        <v>0</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
@@ -1644,8 +1699,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,32 +1911,35 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-15400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>13900</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,11 +1952,11 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1894,49 +1964,52 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3000</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
+      <c r="P33" s="3">
+        <v>0</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
@@ -1944,8 +2017,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,49 +2070,52 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3000</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
+      <c r="P35" s="3">
+        <v>0</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
@@ -2044,63 +2123,69 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,49 +2225,50 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E41" s="3">
         <v>2600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>48600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
+      <c r="P41" s="3">
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
@@ -2189,34 +2276,37 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E42" s="3">
         <v>17100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>18400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>24900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>29800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>29900</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="3">
         <v>138800</v>
-      </c>
-      <c r="K42" s="3">
-        <v>138700</v>
       </c>
       <c r="L42" s="3">
         <v>138700</v>
@@ -2227,8 +2317,8 @@
       <c r="N42" s="3">
         <v>138700</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
+      <c r="O42" s="3">
+        <v>138700</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
@@ -2239,8 +2329,11 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2289,8 +2382,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,108 +2435,117 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>166500</v>
+      </c>
+      <c r="E45" s="3">
         <v>168100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>168900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>206600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>233100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>234900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>227800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>300</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
       </c>
       <c r="M45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N45" s="3">
         <v>400</v>
       </c>
       <c r="O45" s="3">
+        <v>400</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>185800</v>
+      </c>
+      <c r="E46" s="3">
         <v>187800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>190200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>233600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>263600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>268600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>276400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>139100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>139900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>139800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>140000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>140200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2489,31 +2594,34 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E48" s="3">
         <v>147500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>136400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>97600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>71000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>71300</v>
       </c>
       <c r="I48" s="3">
         <v>71300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>71300</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2635,8 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2539,8 +2647,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,8 +2806,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,58 +2912,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>332800</v>
+      </c>
+      <c r="E54" s="3">
         <v>335300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>326500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>331200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>334600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>339900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>347800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>139100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>139900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>139800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>140000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>140200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,58 +3009,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3">
         <v>13100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>15700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>18400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2952,14 +3086,14 @@
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
-        <v>1000</v>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>1000</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -2967,29 +3101,32 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E59" s="3">
         <v>13400</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3002,8 +3139,8 @@
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J59" s="3">
-        <v>4800</v>
+      <c r="J59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K59" s="3">
         <v>4800</v>
@@ -3017,8 +3154,8 @@
       <c r="N59" s="3">
         <v>4800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
+      <c r="O59" s="3">
+        <v>4800</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
@@ -3029,81 +3166,87 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E60" s="3">
         <v>13400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5000</v>
-      </c>
-      <c r="M60" s="3">
-        <v>4900</v>
       </c>
       <c r="N60" s="3">
         <v>4900</v>
       </c>
       <c r="O60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>172900</v>
+      </c>
+      <c r="E61" s="3">
         <v>173300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>162300</v>
-      </c>
-      <c r="F61" s="3">
-        <v>162200</v>
       </c>
       <c r="G61" s="3">
         <v>162200</v>
       </c>
       <c r="H61" s="3">
-        <v>160800</v>
+        <v>162200</v>
       </c>
       <c r="I61" s="3">
         <v>160800</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>160800</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3129,47 +3272,50 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E62" s="3">
         <v>59400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>60900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>56400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>57500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>58800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>83400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,58 +3484,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>310100</v>
+      </c>
+      <c r="E66" s="3">
         <v>313200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>305700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>304900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>309300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>314200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>334900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,49 +3770,52 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-18400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-21400</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
+      <c r="P72" s="3">
+        <v>0</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,49 +3982,52 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E76" s="3">
         <v>22200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>26300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>25700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>120300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>120100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>123300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>121800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>117300</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
+      <c r="P76" s="3">
+        <v>0</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,104 +4088,110 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3000</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
+      <c r="P81" s="3">
+        <v>0</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
@@ -4004,8 +4199,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,32 +4222,33 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
       </c>
       <c r="F83" s="3">
+        <v>500</v>
+      </c>
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4062,8 +4261,8 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4074,8 +4273,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,49 +4538,52 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4600</v>
       </c>
-      <c r="E89" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
@@ -4374,8 +4591,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,37 +4614,38 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -4432,8 +4653,8 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4444,8 +4665,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,32 +4771,35 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-49400</v>
+        <v>18600</v>
       </c>
       <c r="E94" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="F94" s="3">
         <v>36300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>25700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-24200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-179000</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4579,8 +4809,8 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -4594,8 +4824,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,13 +5057,16 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4829,19 +5075,19 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>51900</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -4849,14 +5095,14 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
         <v>140500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
@@ -4864,8 +5110,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,54 +5163,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-54000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>31800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>23500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-24300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-24500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-137300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
